--- a/genomes/HOT1A3/kegg_map_pathway2category.xlsx
+++ b/genomes/HOT1A3/kegg_map_pathway2category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osnat\Documents\GitHub\CC1A3\genomes\MED4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osnat\Documents\GitHub\CC1A3\genomes\HOT1A3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA21C6-D4A7-4D0A-80FB-619FEB1E6BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E04607-FDDA-4E83-AED1-6846237324E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="49">
   <si>
     <t>main</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>09142 Cell motility</t>
+  </si>
+  <si>
+    <t>Motility</t>
+  </si>
+  <si>
+    <t>02035 Bacterial motility proteins [BR:ko02035]</t>
+  </si>
+  <si>
+    <t>99993 Cell motility</t>
   </si>
 </sst>
 </file>
@@ -189,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -212,14 +224,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -581,10 +611,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +788,17 @@
         <v>42</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -765,10 +806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,6 +1002,28 @@
         <v>40</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D13" xr:uid="{00000000-0001-0000-0200-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
